--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/077_GenericTableWorkbookAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/077_GenericTableWorkbookAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="R4052756f0d2e4a21"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="R251eb73b5922456f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/077_GenericTableWorkbookAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/077_GenericTableWorkbookAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="R251eb73b5922456f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="Rc7fd9bf7cec34adb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/077_GenericTableWorkbookAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/077_GenericTableWorkbookAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="Rc7fd9bf7cec34adb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="Rc8b105a4ca654b11"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/077_GenericTableWorkbookAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/077_GenericTableWorkbookAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="Rc8b105a4ca654b11"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="R928c18fc71c340d2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/077_GenericTableWorkbookAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/077_GenericTableWorkbookAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="R928c18fc71c340d2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="R1efb512f4eaf4be8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/077_GenericTableWorkbookAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/077_GenericTableWorkbookAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="R1efb512f4eaf4be8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="Raf855d178d6a4590"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/077_GenericTableWorkbookAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/077_GenericTableWorkbookAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="Raf855d178d6a4590"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="Rd2ce459e139a40ff"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/077_GenericTableWorkbookAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/077_GenericTableWorkbookAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="Rd2ce459e139a40ff"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="R25acb525a656424e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/077_GenericTableWorkbookAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/077_GenericTableWorkbookAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="R25acb525a656424e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="R909d8dd33be948d5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/077_GenericTableWorkbookAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/077_GenericTableWorkbookAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="R909d8dd33be948d5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="R92a8af3248704773"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/077_GenericTableWorkbookAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/077_GenericTableWorkbookAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="R92a8af3248704773"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="R47a7004d2919450d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,22 +30,22 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="4">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/077_GenericTableWorkbookAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/077_GenericTableWorkbookAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="R47a7004d2919450d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="Rf4476ed87d8e4223"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,22 +30,22 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="4">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/077_GenericTableWorkbookAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/077_GenericTableWorkbookAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="Rf4476ed87d8e4223"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="R53bb8bfb78064a3d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
